--- a/data/ex_ret.xlsx
+++ b/data/ex_ret.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lehighedu-my.sharepoint.com/personal/tna324_lehigh_edu/Documents/Lehigh/Academics/Semester 8 - 2025/ISE347 - Financial Optimization/Assignments/Final Project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lehighedu-my.sharepoint.com/personal/ejc425_lehigh_edu/Documents/Lehigh Spring 2025/ISE 347/ISE-347-Final-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_5E7C2CAC741E42F36DBDD4F28724DFA2B51C583A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51B11E53-0264-4A50-B885-3D057B466479}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="11_5E7C2CAC741E42F36DBDD4F28724DFA2B51C583A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C6F4633-AC21-454A-A33D-029D5DCC9D46}"/>
   <bookViews>
-    <workbookView xWindow="36810" yWindow="3150" windowWidth="15435" windowHeight="11115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -609,19 +609,19 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.23046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.84375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.765625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -641,604 +641,604 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>3.3800000000000002E-3</v>
+        <v>3.3841364168727124E-3</v>
       </c>
       <c r="C2" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>3.9382405355347944E-3</v>
       </c>
       <c r="D2" s="4">
-        <v>3.48E-3</v>
+        <v>3.8720091823282606E-3</v>
       </c>
       <c r="E2" s="4">
-        <v>3.65E-3</v>
+        <v>3.7264552620156531E-3</v>
       </c>
       <c r="F2" s="4">
-        <v>3.46E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3.5293810749787323E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>2.8900000000000002E-3</v>
+        <v>2.8893267119466767E-3</v>
       </c>
       <c r="C3" s="4">
-        <v>2.5899999999999999E-3</v>
+        <v>3.1156673182574372E-3</v>
       </c>
       <c r="D3" s="4">
-        <v>2.8400000000000001E-3</v>
+        <v>3.1187009563564401E-3</v>
       </c>
       <c r="E3" s="4">
-        <v>2.8E-3</v>
+        <v>3.0416557530002514E-3</v>
       </c>
       <c r="F3" s="4">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.9241782488535202E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>2.3600000000000001E-3</v>
+        <v>2.3627390581203154E-3</v>
       </c>
       <c r="C4" s="4">
-        <v>4.7200000000000002E-3</v>
+        <v>2.5297088570169768E-3</v>
       </c>
       <c r="D4" s="4">
-        <v>3.8999999999999998E-3</v>
+        <v>2.5357726818980748E-3</v>
       </c>
       <c r="E4" s="4">
-        <v>2.1900000000000001E-3</v>
+        <v>2.4930077898609308E-3</v>
       </c>
       <c r="F4" s="4">
-        <v>2.3500000000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.3194819498659966E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>2.64E-3</v>
+        <v>2.6407659395955279E-3</v>
       </c>
       <c r="C5" s="4">
-        <v>2.8700000000000002E-3</v>
+        <v>2.8776052720131161E-3</v>
       </c>
       <c r="D5" s="4">
-        <v>3.9199999999999999E-3</v>
+        <v>2.8497984209384262E-3</v>
       </c>
       <c r="E5" s="4">
-        <v>2.7799999999999999E-3</v>
+        <v>2.8051632039751439E-3</v>
       </c>
       <c r="F5" s="4">
-        <v>2.7200000000000002E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.7458168543819162E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>2.2100000000000002E-3</v>
+        <v>2.2106800831730119E-3</v>
       </c>
       <c r="C6" s="4">
-        <v>2.3500000000000001E-3</v>
+        <v>2.6564509513538064E-3</v>
       </c>
       <c r="D6" s="4">
-        <v>2.31E-3</v>
+        <v>2.5842716167832685E-3</v>
       </c>
       <c r="E6" s="4">
-        <v>2.2699999999999999E-3</v>
+        <v>2.5183564285507372E-3</v>
       </c>
       <c r="F6" s="4">
-        <v>2.16E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.4168952654532146E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>1.58E-3</v>
+        <v>1.583031478638038E-3</v>
       </c>
       <c r="C7" s="4">
-        <v>2.4099999999999998E-3</v>
+        <v>1.7251689018114595E-3</v>
       </c>
       <c r="D7" s="4">
-        <v>2E-3</v>
+        <v>1.7217159112273975E-3</v>
       </c>
       <c r="E7" s="4">
-        <v>1.67E-3</v>
+        <v>1.7045624627540913E-3</v>
       </c>
       <c r="F7" s="4">
-        <v>1.6900000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.6670278786867106E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>1.64E-3</v>
+        <v>1.6434084203592362E-3</v>
       </c>
       <c r="C8" s="4">
-        <v>4.4999999999999999E-4</v>
+        <v>1.5639139320580233E-3</v>
       </c>
       <c r="D8" s="4">
-        <v>7.2999999999999996E-4</v>
+        <v>1.6324665113924834E-3</v>
       </c>
       <c r="E8" s="4">
-        <v>1.9599999999999999E-3</v>
+        <v>1.6813320252123661E-3</v>
       </c>
       <c r="F8" s="4">
-        <v>1.6800000000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.6999189456875208E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>1.3600000000000001E-3</v>
+        <v>1.3631839093310068E-3</v>
       </c>
       <c r="C9" s="4">
-        <v>1.01E-3</v>
+        <v>1.2715883916160691E-3</v>
       </c>
       <c r="D9" s="4">
-        <v>1.75E-3</v>
+        <v>1.3452834480920434E-3</v>
       </c>
       <c r="E9" s="4">
-        <v>1.58E-3</v>
+        <v>1.4006591423339841E-3</v>
       </c>
       <c r="F9" s="4">
-        <v>1.39E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.4167050116330314E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>1.2199999999999999E-3</v>
+        <v>1.2168110221707164E-3</v>
       </c>
       <c r="C10" s="4">
-        <v>2.5600000000000002E-3</v>
+        <v>1.2329937645992413E-3</v>
       </c>
       <c r="D10" s="4">
-        <v>1.3600000000000001E-3</v>
+        <v>1.2894931430801715E-3</v>
       </c>
       <c r="E10" s="4">
-        <v>1.17E-3</v>
+        <v>1.2811533617575459E-3</v>
       </c>
       <c r="F10" s="4">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.2746720769501612E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>1.8E-3</v>
+        <v>1.7978738756715578E-3</v>
       </c>
       <c r="C11" s="4">
-        <v>3.0699999999999998E-3</v>
+        <v>2.2397421707450221E-3</v>
       </c>
       <c r="D11" s="4">
-        <v>2.1099999999999999E-3</v>
+        <v>2.2027405444138156E-3</v>
       </c>
       <c r="E11" s="4">
-        <v>1.6800000000000001E-3</v>
+        <v>2.0879650330588749E-3</v>
       </c>
       <c r="F11" s="4">
-        <v>1.89E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.0041956349396138E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>2.4499999999999999E-3</v>
+        <v>2.445819957524025E-3</v>
       </c>
       <c r="C12" s="4">
-        <v>3.8500000000000001E-3</v>
+        <v>3.3787769291042428E-3</v>
       </c>
       <c r="D12" s="4">
-        <v>3.79E-3</v>
+        <v>3.2258315385835959E-3</v>
       </c>
       <c r="E12" s="4">
-        <v>2.3500000000000001E-3</v>
+        <v>2.9795592428478977E-3</v>
       </c>
       <c r="F12" s="4">
-        <v>2.6800000000000001E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.8252944289073618E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>1.9E-3</v>
+        <v>1.8951550463525068E-3</v>
       </c>
       <c r="C13" s="4">
-        <v>5.5199999999999997E-3</v>
+        <v>2.3553792837830586E-3</v>
       </c>
       <c r="D13" s="4">
-        <v>5.4099999999999999E-3</v>
+        <v>2.3329750160470831E-3</v>
       </c>
       <c r="E13" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>2.1615066175576228E-3</v>
       </c>
       <c r="F13" s="4">
-        <v>1.9599999999999999E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.048927272223913E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>2.4499999999999999E-3</v>
+        <v>2.4522951441809751E-3</v>
       </c>
       <c r="C14" s="4">
-        <v>1.5200000000000001E-3</v>
+        <v>3.2255576312708056E-3</v>
       </c>
       <c r="D14" s="4">
-        <v>1.8699999999999999E-3</v>
+        <v>3.125649082047132E-3</v>
       </c>
       <c r="E14" s="4">
-        <v>2.3900000000000002E-3</v>
+        <v>2.9009854107519689E-3</v>
       </c>
       <c r="F14" s="4">
-        <v>2.65E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.7880663920656205E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>2.5999999999999999E-3</v>
+        <v>2.5983643033407663E-3</v>
       </c>
       <c r="C15" s="4">
-        <v>3.2799999999999999E-3</v>
+        <v>3.465524899805116E-3</v>
       </c>
       <c r="D15" s="4">
-        <v>2.1800000000000001E-3</v>
+        <v>3.3436192967166555E-3</v>
       </c>
       <c r="E15" s="4">
-        <v>2.7899999999999999E-3</v>
+        <v>3.1877951055987236E-3</v>
       </c>
       <c r="F15" s="4">
-        <v>2.6700000000000001E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3.0106792210934053E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>2.48E-3</v>
+        <v>2.4816402874763563E-3</v>
       </c>
       <c r="C16" s="4">
-        <v>-5.0000000000000002E-5</v>
+        <v>3.1982285588422307E-3</v>
       </c>
       <c r="D16" s="4">
-        <v>-9.7000000000000005E-4</v>
+        <v>3.130373413870026E-3</v>
       </c>
       <c r="E16" s="4">
-        <v>2.6900000000000001E-3</v>
+        <v>3.0319110272576237E-3</v>
       </c>
       <c r="F16" s="4">
-        <v>2.4199999999999998E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.8525782807805257E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>2.5400000000000002E-3</v>
+        <v>2.5439967450303974E-3</v>
       </c>
       <c r="C17" s="4">
-        <v>3.9699999999999996E-3</v>
+        <v>3.155358875582152E-3</v>
       </c>
       <c r="D17" s="4">
-        <v>3.5000000000000001E-3</v>
+        <v>3.1134723763396898E-3</v>
       </c>
       <c r="E17" s="4">
-        <v>2.6099999999999999E-3</v>
+        <v>3.007181765010334E-3</v>
       </c>
       <c r="F17" s="4">
-        <v>2.5799999999999998E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.8542316840698928E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>2.0200000000000001E-3</v>
+        <v>2.0220033550246912E-3</v>
       </c>
       <c r="C18" s="4">
-        <v>3.7499999999999999E-3</v>
+        <v>2.1436862720605175E-3</v>
       </c>
       <c r="D18" s="4">
-        <v>3.3E-4</v>
+        <v>2.1850731419914698E-3</v>
       </c>
       <c r="E18" s="4">
-        <v>2.0500000000000002E-3</v>
+        <v>2.1997088267606281E-3</v>
       </c>
       <c r="F18" s="4">
-        <v>1.97E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.1486989664239332E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="4">
-        <v>1.6199999999999999E-3</v>
+        <v>1.6207357320140638E-3</v>
       </c>
       <c r="C19" s="4">
-        <v>-2.5000000000000001E-3</v>
+        <v>1.5844035798874595E-3</v>
       </c>
       <c r="D19" s="4">
-        <v>2.2200000000000002E-3</v>
+        <v>1.6518022788769742E-3</v>
       </c>
       <c r="E19" s="4">
-        <v>1.67E-3</v>
+        <v>1.6959778151169073E-3</v>
       </c>
       <c r="F19" s="4">
-        <v>1.72E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.6880769660979115E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="4">
-        <v>1.58E-3</v>
+        <v>1.5760605242708125E-3</v>
       </c>
       <c r="C20" s="4">
-        <v>-2.64E-3</v>
+        <v>1.3914021685323907E-3</v>
       </c>
       <c r="D20" s="4">
-        <v>-1.6800000000000001E-3</v>
+        <v>1.5841279267001986E-3</v>
       </c>
       <c r="E20" s="4">
-        <v>1.5200000000000001E-3</v>
+        <v>1.6039052358409491E-3</v>
       </c>
       <c r="F20" s="4">
-        <v>1.6800000000000001E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.6189828723305372E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="4">
-        <v>1.57E-3</v>
+        <v>1.5706299305379341E-3</v>
       </c>
       <c r="C21" s="4">
-        <v>1.1199999999999999E-3</v>
+        <v>1.4395811661504364E-3</v>
       </c>
       <c r="D21" s="4">
-        <v>1.5E-3</v>
+        <v>1.6411808066861865E-3</v>
       </c>
       <c r="E21" s="4">
-        <v>1.6100000000000001E-3</v>
+        <v>1.6310875638664169E-3</v>
       </c>
       <c r="F21" s="4">
-        <v>1.6999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.6389972301089377E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="4">
-        <v>1.58E-3</v>
+        <v>1.5796524200183671E-3</v>
       </c>
       <c r="C22" s="4">
-        <v>-1.31E-3</v>
+        <v>1.5796854105326137E-3</v>
       </c>
       <c r="D22" s="4">
-        <v>-2.6099999999999999E-3</v>
+        <v>1.6550269175644576E-3</v>
       </c>
       <c r="E22" s="4">
-        <v>1.72E-3</v>
+        <v>1.6696647569634938E-3</v>
       </c>
       <c r="F22" s="4">
-        <v>1.5900000000000001E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.6569152756976643E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="4">
-        <v>1.82E-3</v>
+        <v>1.8185306792050599E-3</v>
       </c>
       <c r="C23" s="4">
-        <v>1.9400000000000001E-3</v>
+        <v>2.0459216500372159E-3</v>
       </c>
       <c r="D23" s="4">
-        <v>1.5499999999999999E-3</v>
+        <v>2.0596556503631302E-3</v>
       </c>
       <c r="E23" s="4">
-        <v>1.83E-3</v>
+        <v>2.0289975206111157E-3</v>
       </c>
       <c r="F23" s="4">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.9882034117371934E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="4">
-        <v>1.7799999999999999E-3</v>
+        <v>1.7794589753408281E-3</v>
       </c>
       <c r="C24" s="4">
-        <v>3.29E-3</v>
+        <v>2.3610157767187745E-3</v>
       </c>
       <c r="D24" s="4">
-        <v>2.5100000000000001E-3</v>
+        <v>2.317496785124129E-3</v>
       </c>
       <c r="E24" s="4">
-        <v>2.0300000000000001E-3</v>
+        <v>2.2595598647805223E-3</v>
       </c>
       <c r="F24" s="4">
-        <v>1.82E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.1533401604241324E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="4">
-        <v>1.8500000000000001E-3</v>
+        <v>1.8452015916837297E-3</v>
       </c>
       <c r="C25" s="4">
-        <v>3.7699999999999999E-3</v>
+        <v>2.8700408850404332E-3</v>
       </c>
       <c r="D25" s="4">
-        <v>3.0699999999999998E-3</v>
+        <v>2.8614729853140399E-3</v>
       </c>
       <c r="E25" s="4">
-        <v>1.8600000000000001E-3</v>
+        <v>2.79138216770014E-3</v>
       </c>
       <c r="F25" s="4">
-        <v>1.8699999999999999E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.6946909713344018E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="4">
-        <v>1.8600000000000001E-3</v>
+        <v>1.8593071432372254E-3</v>
       </c>
       <c r="C26" s="4">
-        <v>7.2000000000000005E-4</v>
+        <v>3.2048310428907192E-3</v>
       </c>
       <c r="D26" s="4">
-        <v>1.1900000000000001E-3</v>
+        <v>3.0995196992333642E-3</v>
       </c>
       <c r="E26" s="4">
-        <v>1.81E-3</v>
+        <v>2.9726115245155139E-3</v>
       </c>
       <c r="F26" s="4">
-        <v>1.9300000000000001E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.782021996438159E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="4">
-        <v>1.83E-3</v>
+        <v>1.8328907671858353E-3</v>
       </c>
       <c r="C27" s="4">
-        <v>-1.2600000000000001E-3</v>
+        <v>3.0188444992944375E-3</v>
       </c>
       <c r="D27" s="4">
-        <v>9.7999999999999997E-4</v>
+        <v>3.0067285586882976E-3</v>
       </c>
       <c r="E27" s="4">
-        <v>1.8500000000000001E-3</v>
+        <v>2.9333172788454649E-3</v>
       </c>
       <c r="F27" s="4">
-        <v>1.8699999999999999E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.7474652566705916E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="4">
-        <v>2.0300000000000001E-3</v>
+        <v>2.0344418467488985E-3</v>
       </c>
       <c r="C28" s="4">
-        <v>1.09E-3</v>
+        <v>3.0653616016990438E-3</v>
       </c>
       <c r="D28" s="4">
-        <v>2.4099999999999998E-3</v>
+        <v>3.1183278364909548E-3</v>
       </c>
       <c r="E28" s="4">
-        <v>1.98E-3</v>
+        <v>3.1020464976844902E-3</v>
       </c>
       <c r="F28" s="4">
-        <v>2.0699999999999998E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3.0326400979936636E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="4">
-        <v>1.3600000000000001E-3</v>
+        <v>1.3595060267344809E-3</v>
       </c>
       <c r="C29" s="4">
-        <v>1.65E-3</v>
+        <v>2.4437249159583534E-3</v>
       </c>
       <c r="D29" s="4">
-        <v>1.2099999999999999E-3</v>
+        <v>2.4786207808416383E-3</v>
       </c>
       <c r="E29" s="4">
-        <v>1.64E-3</v>
+        <v>2.478562966001924E-3</v>
       </c>
       <c r="F29" s="4">
-        <v>1.4499999999999999E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.4136958573248895E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="4">
-        <v>1.42E-3</v>
+        <v>1.4235941194505287E-3</v>
       </c>
       <c r="C30" s="4">
-        <v>-5.9000000000000003E-4</v>
+        <v>2.2727241717816096E-3</v>
       </c>
       <c r="D30" s="4">
-        <v>2.1199999999999999E-3</v>
+        <v>2.3561381520635009E-3</v>
       </c>
       <c r="E30" s="4">
-        <v>1.49E-3</v>
+        <v>2.3893074195415896E-3</v>
       </c>
       <c r="F30" s="4">
-        <v>1.34E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.3604506925367719E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="4">
-        <v>7.6000000000000004E-4</v>
+        <v>7.5602477698423877E-4</v>
       </c>
       <c r="C31" s="4">
-        <v>4.2999999999999999E-4</v>
+        <v>1.6438760437992711E-3</v>
       </c>
       <c r="D31" s="4">
-        <v>1.6900000000000001E-3</v>
+        <v>1.6988043783072633E-3</v>
       </c>
       <c r="E31" s="4">
-        <v>7.7999999999999999E-4</v>
+        <v>1.7594297521770347E-3</v>
       </c>
       <c r="F31" s="4">
-        <v>7.9000000000000001E-4</v>
+        <v>1.7029306034289564E-3</v>
       </c>
     </row>
   </sheetData>
